--- a/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. This subcommittee will come to order.    Welcome to our hearing on ``Future Options for the U.S. Nuclear Deterrent: Views from Project Atom.''    For those who haven't read it yet, Project Atom is a unique and very timely study on the future of the U.S. nuclear deterrence. It is unique because it brings together perspectives from across the policy and political spectrum to examine this most important of national security issues.    Four different think tanks participated and had what appears to be a spirited debate of the critical issues. And Project Atom is timely because it is so sorely needed. As some of the materials for the study say, it helps fill, quote--``the current deficit in the national security attention paid to the continued relevance and importance of the U.S. nuclear strategy and force posture,'' close quote.    This committee has been striving to correct this deficit as well. And we welcome Project Atom and its contributing authors in support of that cause.    Chairman Thornberry's nuclear deterrence week of hearings and classified briefings this summer was a step along that same path. This subcommittee will continue to work to inform Congress and the public on the requirements for a robust and credible nuclear deterrence long into the future.    My hope is that Congress and the executive branch, particularly in the next administration, will take a hard look at Project Atom and what it is trying to tell us, because the bottom line is that the world is not standing still. We are not returning to the Cold War, but we are also not returning to the 1990s when so many people believed international peace and love would reign indefinitely.    We need a clear-eyed view of the world's other nuclear states and would-be nuclear states and what we must do to ensure nuclear deterrence holds and nonproliferation prevails.    In the short term, we need to focus on building a nuclear strategy, posture, and enterprise that is flexible and responsive. Our witnesses have lots of suggestions on that front and this committee has advanced legislation toward that goal.    In the long term, I believe we need to rethink the logic behind a policy that keeps the United States indefinitely maintaining a nuclear capability we had in the 1990s.    As other nations, Russia, China, North Korea, Pakistan, continue to research and deploy new nuclear capabilities over the coming decades, the logical question that we must ask is, will the nuclear deterrence capabilities the United States had in the 1990s be credible in 2040?    Unless you believe global zero is going to happen any day now, and if you do then I have a bridge to sell you, we are going to have to reexamine that policy. A choice will be made on this front, not right now, but sometime in the coming years. In the meantime, we can discuss all of this with our panel of witnesses.    Thank you all for being here today and contributing to the study. We know it takes a lot of time to prepare for these hearings and we really appreciate your commitment.    The witnesses are Dr. Clark Murdock, senior adviser, Center for Strategic and International Studies; Dr. Keith Payne, professor and department head, Missouri State University; Mr. Elbridge Colby, Robert M. Gates senior fellow, Center for a New American Security; Dr. Barry Blechman, co-founder of the Stimson Center; and Dr. Adam Mount, independent consultant.    With that, I will turn to my friend and colleague, the ranking member from Tennessee, for any statement he may have.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 37.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. Thank you for holding this important hearing. And I look forward to the testimony of the witnesses and ask that my statement be inserted for the record.    [The prepared statement of Mr. Cooper can be found in the Appendix on page 39.]</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Murdock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Murdock. Thank you very much, Mr. Chairman. Thank you very much, Ranking Member Cooper. It is a great opportunity to come here and talk about the Project Atom study.    It was designed as a sort of blue-sky look into the future without constraints, policy constraints or strategy constraints, as to what kind of nuclear needs, what kind of strategy the United States should follow in the 2025 to 2050 timeframe.    So as I said before, this was unconstrained either by current strategy, by which I mean reducing the role of nuclear weapons, as an example, or by current policy, which is no new nuclear capabilities, no new nuclear weapons.    So we are out into the 2025 and beyond timeframe. The approach we took was a competitive strategies approach. This was funded by Smith Richardson [Foundation] in part because we took the competitive strategies approach to it. So I went out and recruited three independent think tank teams to participate in this.    The first was headed by Keith Payne from the National Institute for Public Policy, Bridge Colby from the Center for a New American Security, and Barry Blechman from the Stimson Center. And each of them formed a small, analytic team that operated throughout and attended the working group, members, and then presented their views, defended their views.    And then once that process was complete, then I stepped back and wrote what I thought was the right approach to take towards a nuclear strategy and its postured needs. And then I defended that in another working group meeting consisting of outside experts and the members of the various independent study think tank teams.    So the approach was one of develop a common analytic framework, think through what are the requirements of that security environment, what kind of adversary strategies would be followed, what kind of technological possibilities would be open in the nuclear realm in the 2025 to 2050 timeframe, and then each of us took a separate look at what should be our strategy.    My dynamic that I thought was most important were the dynamics that flowed essentially from U.S. conventional superiority. That is, in a world in which nations are seeking to deal and cope with a conventionally superior adversary, namely the United States in this case, would increase their reliance upon nuclear weapons as a way to deter us.    And essentially, our conventional superiority, in a sense, lowers the nuclear threshold because it increases the incentives for other nations to resort to nuclear weapons as a way of trying to prevent our intervening in, say, regional adventurism that they might be following.    So my belief is, is that in order to counter other nations' potential interest in using nuclear weapons early in a conflict is that we need to develop a set of robust, discriminate nuclear options in order to be able to respond both proportionally and in kind to any possible use of a nuclear weapon against the United States and its allies.    I am concerned about the fact that we have a force structure largely and a posture largely determined by Cold War needs. The warheads are larger, many of them are less discriminate, many of them carry high collateral damage. And if confronted with the situation where an adversary used a special-effects, low-collateral weapon, nuclear weapon, against the United States or one of its allies, that we may be self-deterred from responding because we do not have a discriminate or a proportional or an in-kind response that is suitable to that use of a nuclear weapon.    So one stress is on what kind of nuclear response options we have. We need to be able to deny the attractiveness of nuclear escalation to our potential adversaries. So we need a new set of capabilities in that area.    Another area that I think is particularly important is to look at the requirements for extended deterrence. During the Cold War, the United States coupled its security to the security of our allies, both in the European theater and the Pacific theater.    We tend to forget that during the height of the Cold War the United States had forward deployed 7,000 nuclear weapons in Europe during that time, so that when the Soviets looked at what would happen if they engaged in major conventional aggression, because we perceived, correctly so, that our conventional forces were inferior to the Warsaw Pact forces, they knew that a conflict would go nuclear because there were 7,000 nuclear weapons there.    We also had a thousand nuclear weapons deployed on the Korean Peninsula because we wanted to protect the security of South Korea, and they wanted those nuclear weapons there because they knew that the presence of nuclear weapons on their territory would be credible in terms of potential adversaries.    So I think another aspect of our force structure as we move forward, our nuclear force structure as we move forward, is the need to have rapidly deployable and rapidly deployed nuclear weapons that can be either deployed forward during peacetime or can be rapidly moved forward during a moment of crisis in order to provide the nuclear umbrella that we are talking about.    So with those two comments, I will let the other think tanks speak for themselves and pass the floor to Dr. Payne.    [The prepared statement of Dr. Murdock can be found in the Appendix on page 40.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Dr. Payne, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Payne</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Payne. Thank you, Mr. Chairman and Ranking Member Cooper. It is an honor to be here.    The assessment by my colleague Tom Scheber and myself is based on----</t>
   </si>
   <si>
@@ -100,27 +88,18 @@
     <t xml:space="preserve">    Mr. Rogers. Thank you, Dr. Payne.    Mr. Colby, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Colby</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Colby. Mr. Chairman, Ranking Member Cooper, and distinguished members of the committee, thank you very much for inviting me to testify on the future of America's nuclear deterrent.    It is an honor to speak to you today on this matter of the greatest importance to our Nation's security.    We are entering a period of significant and possibly dramatic change in both the geopolitical and the military technological spheres. In brief, the United States is likely to confront more significant challenges to its interests from countries like China in Asia and Russia in and around Europe.    At the same time, U.S. conventional military advantages over its plausible opponents will likely narrow. This will have major implications for U.S. defense strategy writ large, but also for our nuclear deterrent. Accordingly, the United States needs to adapt its nuclear policy and posture.    What in particular should change? If the United States continues to want to extend deterrence effectively, as I believe it should, U.S. nuclear weapons need to do more than threaten unhindered devastation. Thus, while the ultimate source of U.S. deterrence should, of course, remain the threat of overwhelming destruction, the United States should also prepare for and make clear that it would, as appropriate, use its nuclear forces in more limited fashion for more focused effect.    In particular, the United States should adapt its nuclear forces to be able to fight a limited nuclear war more effectively than its plausible adversaries. Such superiority would give the United States important and possibly crucial leverage to defend its interests in both peace and war.    The U.S. nuclear force of today is not, however, optimally designed for this demanding set of criteria. To optimize its nuclear force, the United States should do the following.    Invest appropriately in an improved nuclear command and control system such that U.S. nuclear forces can perform their missions reliably under any plausible conditions and do so in sufficiently controlled and deliberate ways.    Maintain the nuclear triad to ensure a resilient, redundant, and highly capable nuclear deterrent.    In addition to fully funding the SSBN [ballistic missile submarine] replacement and replacing the Minuteman III, the United States should maintain and modernize its fleet of nuclear-armed bombers. This modernization effort is particularly important in light of the unique attack capabilities found in the bomber force, but also in the growing challenges to stealth and its ability to penetrate. This effort should include procuring the LRSB [Long-Range Strike Bomber] in sufficient numbers, maintaining the B-52H and B-2A, buying sufficient dual-capable F-35s for regional deterrence and assurance and acquiring the Long-Range Standoff [LRSO] option missile.    The United States should also move in the direction of providing most or all of its nuclear forces with variable-yield warheads or weapons that can provide a variety of types of effects, such as electromagnetic pulse, different height of bursts, use at sea and so forth, so that the United States can more effectively tailor strikes from the full range of its available platforms.    The United States should in particular focus on making the ballistic missile force more capable of discriminate strikes. The United States should accordingly render at least some portion of the Trident II D5 SLBM [submarine-launched ballistic missile] arsenal capable of lower-yield strikes, for instance by using primary-only warheads.    The United States should also ensure that the LRSO is capable of discriminate employment by arming it with a variable-yield warhead.    Given the proliferation of hardened and deeply buried targets, or HDBTs, earth penetration should be a special focus of long-term research and development and ultimately procurement. This is vital, I emphasize, both for deterrence and for stability.    The size and composition of the nuclear force should be determined based on strategic considerations. Arms control should be pursued where and so it contributes to stability, but not for the sake of reductions.    In closing, the world is changing in ways that dictate that U.S. nuclear policy and posture should also change. The United States should grasp the opportunity to make such changes while unfavorable trends are still nascent and susceptible to counteraction. I believe a modernization program along these lines would add to a favorable stability and ultimately to the kind of peace we and our allies justifiably seek.    I look forward to any questions you might have. Thank you very much.    [The prepared statement of Mr. Colby can be found in the Appendix on page 61.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Colby.    Mr. Blechman, you are recognized for 5 minutes. Dr. Blechman, I apologize.</t>
   </si>
   <si>
-    <t>Blechman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Blechman. Thank you, Mr. Chairman, Mr. Cooper, members of the subcommittee. This is a good opportunity.    I have a rather different view than my colleagues in this project and I will briefly summarize it.    Now, in my view, U.S. security benefits by seeking to minimize the importance and roles of nuclear weapons in the perceptions and actions of foreign leaders. For the United States, nuclear weapons serve only to deter nuclear attacks on ourselves and on our allies.    Maintaining U.S. conventional superiority is the key to U.S. security, and our nuclear weapon programs harm this by raising the prospect of false alternatives, such as being able to fight controlled nuclear wars, and by their direct effects on budgets and on the training of U.S. military personnel.    So in summary, I believe the U.S. should work diplomatically to constrain nukes as circumstances permit, adopt policies and doctrines and work politically to strengthen the nuclear taboo and adjust force posture and modernization programs to reduce expenditures.    Our security depends mainly on political leadership, on diplomacy, and on our economic instruments of power, private and public. And it also depends on our conventional superiority, which is due to the scale and longevity of our investments and advanced technologies and systems on the size of our forces and on the quality and training of our people.    We can't do everything with military force, but we can defeat any conventional threat we face currently. China and Russia are making advances, but I believe the U.S. should be able to maintain superiority if our citizens remain willing to allocate sufficient resources. And I would be happy to debate this point during the questions.    Maintaining our technological and quantitative conventional edge should be our highest priority. And this will be hampered increasingly by the bow wave of nuclear spending that we are facing in the next decade.    In my view, the primary goal of our nuclear policy should be the elimination of nuclear weapons from all nations. I recognize this is not going to be achieved until many, many political conflicts are resolved and may never be achieved, but it is certainly a goal that I think should be a vision that should be underneath our policies.    Until elimination becomes feasible, if it ever does, the U.S. should, one, stress a firm commitment to nuclear retaliation for any nuclear attack, be clear that any nuclear attack on the U.S. or our ally will result in retaliation no matter how small the yield of the attack, no matter what the target might be or whatever the range of the launcher which was used to fire the weapon, but we should also make clear that this deterrent role is the only purpose of U.S. weapons.    Deterrence, in my mind, depends not on nuclear capabilities, but on boots on the ground. If we are concerned about the possibility of Russian incursion in the Baltic states, we should and I believe we should greatly improve NATO's presence on the ground in those countries so that the Russians never come to the misperception that they can perform a fait accompli before NATO can respond to that. And there are ideas around to put the equipment, pre-deploy equipment, for U.S. armored brigades in those countries, and I strongly support those ideas as well as related things.    So the implications of this policy for U.S. nuclear forces are, one, as the current generation ages out I believe we can reduce the number of our forces unilaterally. I think we should maintain a triad, but that could be reduced to perhaps 8 to 10 submarines, to 2 Minuteman wings with only modest investments can be maintained viable until the 2040s.    I believe we should put a high emphasis, high priority on the new bomber, primarily for its conventional role, but also for a nuclear role. I think we should phase out tactical nuclear weapons as their service lives expire, because there is nothing those weapons can accomplish that could not be accomplished by a long-range strategic bomber armed with a variable-yield weapon.    And finally, I think we should divert the resources we save by making those reductions to our conventional capabilities, particularly command and control survivability, which I agree with Bridge on that, on continued R&amp;D [research and development] on defenses, missile defenses, and deploying such defenses as the technologies mature, and on cyber and EW [electronic warfare] capabilities and on advanced conventional technologies.    Thank you very much.    [The prepared statement of Dr. Blechman can be found in the Appendix on page 75.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Dr. Blechman.    Dr. Mount, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Mount</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Mount. Thank you, Chairman Rogers, Congressman Cooper, members of the subcommittee. Thank you for the opportunity to discuss this with you today.    The world that we are entering is indeed a period of strategic competition. However, this does not mean we are in a new Cold War. Today's challenge is one of maintaining stability in regional contexts and defending the core interests of U.S. allies against limited, but persistent, encroachment.    Both China and Russia are engaged in extensive programs to modernize their nuclear arsenals. But with a few important exceptions, both countries are replacing legacy systems that have reached the end of their service lives. Neither country plans to operate a submarine force capable of maintaining boats continually on station near our shores and neither plans to construct a low, observable bomber platform. For the foreseeable future, U.S. nuclear forces will remain markedly more capable.    Recent calls to build new nuclear weapons and to deploy them closer to potential zones of conflict represent a dramatic departure from longstanding, bipartisan consensus nuclear policy. Since the 1980s, Presidents of both parties have worked to reduce the salience of nuclear weapons in our military planning, to gradually reduce our nuclear stockpile and to refrain from procuring new capabilities.    New nuclear weapons are unlikely to be effective instruments for deterrence or defense in this new era of hybrid conflict. Both Russia and China are likely to continue to pursue their objectives with operations that remain well below the threshold of war. Nuclear weapons, no matter what kind and no matter where they are stationed, cannot deter this kind of threat. They cannot help to roll back Russian occupation of Crimea or put a halt to Chinese land reclamation in the South China Sea.    At the same time, it is far from certain that low-yield and special-effects nuclear weapons are necessary for deterrence or escalation control. The United States cannot be certain that these weapons will deter better than the strategic arsenal or that they will restrain an adversary from conducting further nuclear strikes.    The enormous strategic and diplomatic costs of employing a tactical weapon make it unlikely that they would be utilized, which in turn decreases their utility as instruments of deterrence. China and Russia are already threatened by American superiority. New nuclear programs would likely cause them to accelerate their modernization efforts, contributing to what former Secretary of Defense Bill Perry recently warned is a new round in the nuclear arms race.    For these reasons, imbalances should be addressed through verifiable arms control agreements. For this reason, the United States should press Russia to engage in negotiations, not only to limit existing nuclear systems, but also the procurement programs that each country finds most threatening.    Initiating new nuclear procurement programs in the United States would also have serious effects on the national defense budget. If history is any precedent, Congress is unlikely to obligate funds for a hundred new bombers and 12 new Ohio-replacement submarines on top of numerous other outlays.    Unexpected cuts to core systems of the triad will require changes in strategy and operations. At the same time, nuclear modernization plans also place significant pressure on other military priorities, especially in Navy shipbuilding and the F-35 program.    Congress and the White House should seek prudent cuts to the modernization plans in advance so that the services can plan for the future. Specifically, Congress should require the Department of Defense [DOD] to generate studies that explain the need for a new cruise missile, examine the effect of moving to a force of 8 to 10 ballistic missile submarines and to provide regular cost estimates of new spending on nuclear systems, especially the new Long-Range Strike Bomber.    Lastly, the costs of seeking new nuclear capabilities are not only monetary. Reneging on the U.S. commitment not to build new nuclear capabilities could stress a beleaguered nuclear nonproliferation treaty regime to the breaking point, and thereby deprive the United States of important tools to prevent the spread of nuclear weapons.    At the same time, new procurement efforts would encourage the other countries to seek these capabilities. It is far safer to maintain that nuclear weapons are not an effective means of controlling escalation.    In conclusion, current and projected strategic conditions do not warrant major changes to longstanding nuclear force structure. It is critical to national security and the Nation's standing in the world that the United States maintain its commitment not to seek new nuclear capabilities and to continue gradual negotiated reductions of its nuclear arsenal.    Thank you.    [The prepared statement of Dr. Mount can be found in the Appendix on page 91.]</t>
   </si>
   <si>
@@ -178,9 +157,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, for having this hearing.    And thank you all for being here and for your hard work.    I would like to ask something to Dr. Clark Murdock, Dr. Keith Payne, and Mr. Elbridge Colby in particular.    There was some talk that there was consideration of further unilateral cuts beyond what New START [Strategic Arms Reduction Treaty] called for. And I am not sure that that has died down or not, I hope it has. But should that kind of talk be resurrected, would you or any of the three of you advocate for further unilateral cuts on the part of the U.S. of our nuclear stockpile?</t>
   </si>
   <si>
@@ -214,9 +190,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman.    Thank you for being here, gentlemen.    This one is for the group.    And as it was mentioned in the Wolfsthal and Lewis, the Trillion Dollar Triad report, Dr. Mount, you mentioned that in your testimony a few times, and the cost estimate of a trillion dollars to upgrade our nuclear triad over the next 30 years.    Based on this mind-boggling figure, how can we, regardless of the strategic argument, realistically talk about developing and deploying lower-yield weapons when clearly now and in the future some of these serious investments that we need to make, some serious investments in our conventional capabilities, with finite dollars available to us, it is imperative that they be invested wisely.    And I give you some credit because in your testimony you do talk about some of the financial implications as well. Can you expand on that?</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    And I am glad to hear, it is very interesting to hear that really a debate that is going on right in front of our eyes, the panel, of where we go with our nuclear deterrence. And I do appreciate the fact that it seems there is a consensus that we maintain our nuclear triad, and I certainly agree with that. We want to make our potential adversaries the most complex problem possible. That is how deterrence works.    Dr. Payne, I have a question for you. How do long-range bombers factor into your call for greater adaptability and flexibility in our future nuclear posture? And could you explain why we need the new Long-Range Strike Bomber that will eventually replace portions of our current bomber force?</t>
   </si>
   <si>
@@ -301,9 +271,6 @@
     <t>412382</t>
   </si>
   <si>
-    <t>John Garamendi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garamendi. Chairman Rogers, thank you so very, very much.    This is an extraordinarily important policy issue. It is a policy that we will be dealing with, I think, in the next--this year and on into probably the next 5 years. But we will set in place, one way or another, an extraordinarily important process.    We have heard from, what I would call, the advocates of a greater nuclear. I would like to have Dr. Blechman take about 3\\1/2\\ of my 5 minutes and come back with your arguments as to what you have heard here.    Dr. Blechman.    If you can pull that microphone down in front of you. There you go.</t>
   </si>
   <si>
@@ -325,9 +292,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. For 15 minutes, that would be perfect.</t>
   </si>
   <si>
@@ -374,9 +338,6 @@
   </si>
   <si>
     <t>412567</t>
-  </si>
-  <si>
-    <t>Jim Bridenstine</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Every day I am in Congress I am surprised, most recently by Mr. Garamendi, my good friend from California, who I have high regard for, who I think is a great thinker, although we might not always agree, if very often at all. I don't know.    But you know, his declaratory policy of if you use a nuclear weapon you are history, it is very Reaganesque and I am impressed by that. And I would--I say that very complimentary.    What I would like to discuss are some of the things that we have in common. The ranking member mentioned that the command and control element seemed to be an issue where there is a lot of commonality, which is very important for us because where there is commonality we can start looking at budgets, at policy, at programs that we can put together.    And when you look at the command and control, it seems like everybody is in agreement that we need resiliency, that we need survivability.    You know, we have, you know, a space-based architecture for command and control that would be survivable and resilient. There is an AOA [analysis of alternatives] that has been in the Pentagon now for a long time. We have been trying to get that from the Pentagon. It has been very difficult getting it.    But I wanted to draw on a statement from Mr. Colby. You recommend that the United States develop, quote--``more resilient space assets, more terrestrial and air-breathing platforms for C4ISR [command, control, communications, computers, intelligence, surveillance, and reconnaissance] and more modular and disaggregated architecture.''    I think I would agree with all of that assessment. Can you describe specific investments you would support? And do we need a layered architecture to back up the current system?</t>
@@ -859,11 +820,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -883,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -911,11 +868,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -937,11 +892,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -961,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -989,11 +940,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1013,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1041,11 +988,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1065,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1093,11 +1036,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1117,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1145,11 +1084,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1169,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1197,11 +1132,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1221,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1249,11 +1180,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1273,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1301,11 +1228,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1325,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1353,11 +1276,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1377,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1405,11 +1324,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1429,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1455,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1481,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1507,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1533,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1559,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1585,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1611,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1637,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1665,11 +1564,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1689,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1715,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1741,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1767,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1793,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1819,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1845,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1871,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1897,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1925,11 +1804,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1949,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1975,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2001,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2027,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2053,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2079,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2105,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2133,11 +1996,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2159,11 +2020,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2183,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2211,11 +2068,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2235,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2263,11 +2116,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2287,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2313,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2339,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2365,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2391,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2417,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2443,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2469,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2495,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2521,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2547,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2575,11 +2404,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2599,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2625,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2651,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2677,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2703,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2731,11 +2548,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2755,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
-      </c>
-      <c r="G75" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2783,11 +2596,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2807,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2833,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
-      </c>
-      <c r="G78" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2859,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2885,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>102</v>
-      </c>
-      <c r="G80" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2911,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2937,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
-      </c>
-      <c r="G82" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2963,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2989,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3015,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3041,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>102</v>
-      </c>
-      <c r="G86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
         <v>103</v>
-      </c>
-      <c r="H86" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3067,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3093,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G88" t="s">
-        <v>103</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3121,11 +2908,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3145,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
-      </c>
-      <c r="G90" t="s">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3171,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3197,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
-      </c>
-      <c r="G92" t="s">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3223,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3249,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
-      </c>
-      <c r="G94" t="s">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3275,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
-      </c>
-      <c r="G95" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3301,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
-      </c>
-      <c r="G96" t="s">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3327,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3355,11 +3124,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3379,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3407,11 +3172,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3431,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3459,11 +3220,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3483,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3511,11 +3268,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3535,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3563,11 +3316,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3587,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3613,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3639,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3665,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3691,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3717,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>28</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3743,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3769,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3797,11 +3532,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3821,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>94</v>
-      </c>
-      <c r="G116" t="s">
-        <v>95</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3849,11 +3580,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Good afternoon. This subcommittee will come to order.    Welcome to our hearing on ``Future Options for the U.S. Nuclear Deterrent: Views from Project Atom.''    For those who haven't read it yet, Project Atom is a unique and very timely study on the future of the U.S. nuclear deterrence. It is unique because it brings together perspectives from across the policy and political spectrum to examine this most important of national security issues.    Four different think tanks participated and had what appears to be a spirited debate of the critical issues. And Project Atom is timely because it is so sorely needed. As some of the materials for the study say, it helps fill, quote--``the current deficit in the national security attention paid to the continued relevance and importance of the U.S. nuclear strategy and force posture,'' close quote.    This committee has been striving to correct this deficit as well. And we welcome Project Atom and its contributing authors in support of that cause.    Chairman Thornberry's nuclear deterrence week of hearings and classified briefings this summer was a step along that same path. This subcommittee will continue to work to inform Congress and the public on the requirements for a robust and credible nuclear deterrence long into the future.    My hope is that Congress and the executive branch, particularly in the next administration, will take a hard look at Project Atom and what it is trying to tell us, because the bottom line is that the world is not standing still. We are not returning to the Cold War, but we are also not returning to the 1990s when so many people believed international peace and love would reign indefinitely.    We need a clear-eyed view of the world's other nuclear states and would-be nuclear states and what we must do to ensure nuclear deterrence holds and nonproliferation prevails.    In the short term, we need to focus on building a nuclear strategy, posture, and enterprise that is flexible and responsive. Our witnesses have lots of suggestions on that front and this committee has advanced legislation toward that goal.    In the long term, I believe we need to rethink the logic behind a policy that keeps the United States indefinitely maintaining a nuclear capability we had in the 1990s.    As other nations, Russia, China, North Korea, Pakistan, continue to research and deploy new nuclear capabilities over the coming decades, the logical question that we must ask is, will the nuclear deterrence capabilities the United States had in the 1990s be credible in 2040?    Unless you believe global zero is going to happen any day now, and if you do then I have a bridge to sell you, we are going to have to reexamine that policy. A choice will be made on this front, not right now, but sometime in the coming years. In the meantime, we can discuss all of this with our panel of witnesses.    Thank you all for being here today and contributing to the study. We know it takes a lot of time to prepare for these hearings and we really appreciate your commitment.    The witnesses are Dr. Clark Murdock, senior adviser, Center for Strategic and International Studies; Dr. Keith Payne, professor and department head, Missouri State University; Mr. Elbridge Colby, Robert M. Gates senior fellow, Center for a New American Security; Dr. Barry Blechman, co-founder of the Stimson Center; and Dr. Adam Mount, independent consultant.    With that, I will turn to my friend and colleague, the ranking member from Tennessee, for any statement he may have.    [The prepared statement of Mr. Rogers can be found in the Appendix on page 37.]</t>
   </si>
   <si>
     <t>400081</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. Thank you for holding this important hearing. And I look forward to the testimony of the witnesses and ask that my statement be inserted for the record.    [The prepared statement of Mr. Cooper can be found in the Appendix on page 39.]</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Murdock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Murdock. Thank you very much, Mr. Chairman. Thank you very much, Ranking Member Cooper. It is a great opportunity to come here and talk about the Project Atom study.    It was designed as a sort of blue-sky look into the future without constraints, policy constraints or strategy constraints, as to what kind of nuclear needs, what kind of strategy the United States should follow in the 2025 to 2050 timeframe.    So as I said before, this was unconstrained either by current strategy, by which I mean reducing the role of nuclear weapons, as an example, or by current policy, which is no new nuclear capabilities, no new nuclear weapons.    So we are out into the 2025 and beyond timeframe. The approach we took was a competitive strategies approach. This was funded by Smith Richardson [Foundation] in part because we took the competitive strategies approach to it. So I went out and recruited three independent think tank teams to participate in this.    The first was headed by Keith Payne from the National Institute for Public Policy, Bridge Colby from the Center for a New American Security, and Barry Blechman from the Stimson Center. And each of them formed a small, analytic team that operated throughout and attended the working group, members, and then presented their views, defended their views.    And then once that process was complete, then I stepped back and wrote what I thought was the right approach to take towards a nuclear strategy and its postured needs. And then I defended that in another working group meeting consisting of outside experts and the members of the various independent study think tank teams.    So the approach was one of develop a common analytic framework, think through what are the requirements of that security environment, what kind of adversary strategies would be followed, what kind of technological possibilities would be open in the nuclear realm in the 2025 to 2050 timeframe, and then each of us took a separate look at what should be our strategy.    My dynamic that I thought was most important were the dynamics that flowed essentially from U.S. conventional superiority. That is, in a world in which nations are seeking to deal and cope with a conventionally superior adversary, namely the United States in this case, would increase their reliance upon nuclear weapons as a way to deter us.    And essentially, our conventional superiority, in a sense, lowers the nuclear threshold because it increases the incentives for other nations to resort to nuclear weapons as a way of trying to prevent our intervening in, say, regional adventurism that they might be following.    So my belief is, is that in order to counter other nations' potential interest in using nuclear weapons early in a conflict is that we need to develop a set of robust, discriminate nuclear options in order to be able to respond both proportionally and in kind to any possible use of a nuclear weapon against the United States and its allies.    I am concerned about the fact that we have a force structure largely and a posture largely determined by Cold War needs. The warheads are larger, many of them are less discriminate, many of them carry high collateral damage. And if confronted with the situation where an adversary used a special-effects, low-collateral weapon, nuclear weapon, against the United States or one of its allies, that we may be self-deterred from responding because we do not have a discriminate or a proportional or an in-kind response that is suitable to that use of a nuclear weapon.    So one stress is on what kind of nuclear response options we have. We need to be able to deny the attractiveness of nuclear escalation to our potential adversaries. So we need a new set of capabilities in that area.    Another area that I think is particularly important is to look at the requirements for extended deterrence. During the Cold War, the United States coupled its security to the security of our allies, both in the European theater and the Pacific theater.    We tend to forget that during the height of the Cold War the United States had forward deployed 7,000 nuclear weapons in Europe during that time, so that when the Soviets looked at what would happen if they engaged in major conventional aggression, because we perceived, correctly so, that our conventional forces were inferior to the Warsaw Pact forces, they knew that a conflict would go nuclear because there were 7,000 nuclear weapons there.    We also had a thousand nuclear weapons deployed on the Korean Peninsula because we wanted to protect the security of South Korea, and they wanted those nuclear weapons there because they knew that the presence of nuclear weapons on their territory would be credible in terms of potential adversaries.    So I think another aspect of our force structure as we move forward, our nuclear force structure as we move forward, is the need to have rapidly deployable and rapidly deployed nuclear weapons that can be either deployed forward during peacetime or can be rapidly moved forward during a moment of crisis in order to provide the nuclear umbrella that we are talking about.    So with those two comments, I will let the other think tanks speak for themselves and pass the floor to Dr. Payne.    [The prepared statement of Dr. Murdock can be found in the Appendix on page 40.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Dr. Payne, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Payne. Thank you, Mr. Chairman and Ranking Member Cooper. It is an honor to be here.    The assessment by my colleague Tom Scheber and myself is based on----</t>
   </si>
   <si>
@@ -88,18 +109,27 @@
     <t xml:space="preserve">    Mr. Rogers. Thank you, Dr. Payne.    Mr. Colby, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Colby</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Colby. Mr. Chairman, Ranking Member Cooper, and distinguished members of the committee, thank you very much for inviting me to testify on the future of America's nuclear deterrent.    It is an honor to speak to you today on this matter of the greatest importance to our Nation's security.    We are entering a period of significant and possibly dramatic change in both the geopolitical and the military technological spheres. In brief, the United States is likely to confront more significant challenges to its interests from countries like China in Asia and Russia in and around Europe.    At the same time, U.S. conventional military advantages over its plausible opponents will likely narrow. This will have major implications for U.S. defense strategy writ large, but also for our nuclear deterrent. Accordingly, the United States needs to adapt its nuclear policy and posture.    What in particular should change? If the United States continues to want to extend deterrence effectively, as I believe it should, U.S. nuclear weapons need to do more than threaten unhindered devastation. Thus, while the ultimate source of U.S. deterrence should, of course, remain the threat of overwhelming destruction, the United States should also prepare for and make clear that it would, as appropriate, use its nuclear forces in more limited fashion for more focused effect.    In particular, the United States should adapt its nuclear forces to be able to fight a limited nuclear war more effectively than its plausible adversaries. Such superiority would give the United States important and possibly crucial leverage to defend its interests in both peace and war.    The U.S. nuclear force of today is not, however, optimally designed for this demanding set of criteria. To optimize its nuclear force, the United States should do the following.    Invest appropriately in an improved nuclear command and control system such that U.S. nuclear forces can perform their missions reliably under any plausible conditions and do so in sufficiently controlled and deliberate ways.    Maintain the nuclear triad to ensure a resilient, redundant, and highly capable nuclear deterrent.    In addition to fully funding the SSBN [ballistic missile submarine] replacement and replacing the Minuteman III, the United States should maintain and modernize its fleet of nuclear-armed bombers. This modernization effort is particularly important in light of the unique attack capabilities found in the bomber force, but also in the growing challenges to stealth and its ability to penetrate. This effort should include procuring the LRSB [Long-Range Strike Bomber] in sufficient numbers, maintaining the B-52H and B-2A, buying sufficient dual-capable F-35s for regional deterrence and assurance and acquiring the Long-Range Standoff [LRSO] option missile.    The United States should also move in the direction of providing most or all of its nuclear forces with variable-yield warheads or weapons that can provide a variety of types of effects, such as electromagnetic pulse, different height of bursts, use at sea and so forth, so that the United States can more effectively tailor strikes from the full range of its available platforms.    The United States should in particular focus on making the ballistic missile force more capable of discriminate strikes. The United States should accordingly render at least some portion of the Trident II D5 SLBM [submarine-launched ballistic missile] arsenal capable of lower-yield strikes, for instance by using primary-only warheads.    The United States should also ensure that the LRSO is capable of discriminate employment by arming it with a variable-yield warhead.    Given the proliferation of hardened and deeply buried targets, or HDBTs, earth penetration should be a special focus of long-term research and development and ultimately procurement. This is vital, I emphasize, both for deterrence and for stability.    The size and composition of the nuclear force should be determined based on strategic considerations. Arms control should be pursued where and so it contributes to stability, but not for the sake of reductions.    In closing, the world is changing in ways that dictate that U.S. nuclear policy and posture should also change. The United States should grasp the opportunity to make such changes while unfavorable trends are still nascent and susceptible to counteraction. I believe a modernization program along these lines would add to a favorable stability and ultimately to the kind of peace we and our allies justifiably seek.    I look forward to any questions you might have. Thank you very much.    [The prepared statement of Mr. Colby can be found in the Appendix on page 61.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Colby.    Mr. Blechman, you are recognized for 5 minutes. Dr. Blechman, I apologize.</t>
   </si>
   <si>
+    <t>Blechman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Blechman. Thank you, Mr. Chairman, Mr. Cooper, members of the subcommittee. This is a good opportunity.    I have a rather different view than my colleagues in this project and I will briefly summarize it.    Now, in my view, U.S. security benefits by seeking to minimize the importance and roles of nuclear weapons in the perceptions and actions of foreign leaders. For the United States, nuclear weapons serve only to deter nuclear attacks on ourselves and on our allies.    Maintaining U.S. conventional superiority is the key to U.S. security, and our nuclear weapon programs harm this by raising the prospect of false alternatives, such as being able to fight controlled nuclear wars, and by their direct effects on budgets and on the training of U.S. military personnel.    So in summary, I believe the U.S. should work diplomatically to constrain nukes as circumstances permit, adopt policies and doctrines and work politically to strengthen the nuclear taboo and adjust force posture and modernization programs to reduce expenditures.    Our security depends mainly on political leadership, on diplomacy, and on our economic instruments of power, private and public. And it also depends on our conventional superiority, which is due to the scale and longevity of our investments and advanced technologies and systems on the size of our forces and on the quality and training of our people.    We can't do everything with military force, but we can defeat any conventional threat we face currently. China and Russia are making advances, but I believe the U.S. should be able to maintain superiority if our citizens remain willing to allocate sufficient resources. And I would be happy to debate this point during the questions.    Maintaining our technological and quantitative conventional edge should be our highest priority. And this will be hampered increasingly by the bow wave of nuclear spending that we are facing in the next decade.    In my view, the primary goal of our nuclear policy should be the elimination of nuclear weapons from all nations. I recognize this is not going to be achieved until many, many political conflicts are resolved and may never be achieved, but it is certainly a goal that I think should be a vision that should be underneath our policies.    Until elimination becomes feasible, if it ever does, the U.S. should, one, stress a firm commitment to nuclear retaliation for any nuclear attack, be clear that any nuclear attack on the U.S. or our ally will result in retaliation no matter how small the yield of the attack, no matter what the target might be or whatever the range of the launcher which was used to fire the weapon, but we should also make clear that this deterrent role is the only purpose of U.S. weapons.    Deterrence, in my mind, depends not on nuclear capabilities, but on boots on the ground. If we are concerned about the possibility of Russian incursion in the Baltic states, we should and I believe we should greatly improve NATO's presence on the ground in those countries so that the Russians never come to the misperception that they can perform a fait accompli before NATO can respond to that. And there are ideas around to put the equipment, pre-deploy equipment, for U.S. armored brigades in those countries, and I strongly support those ideas as well as related things.    So the implications of this policy for U.S. nuclear forces are, one, as the current generation ages out I believe we can reduce the number of our forces unilaterally. I think we should maintain a triad, but that could be reduced to perhaps 8 to 10 submarines, to 2 Minuteman wings with only modest investments can be maintained viable until the 2040s.    I believe we should put a high emphasis, high priority on the new bomber, primarily for its conventional role, but also for a nuclear role. I think we should phase out tactical nuclear weapons as their service lives expire, because there is nothing those weapons can accomplish that could not be accomplished by a long-range strategic bomber armed with a variable-yield weapon.    And finally, I think we should divert the resources we save by making those reductions to our conventional capabilities, particularly command and control survivability, which I agree with Bridge on that, on continued R&amp;D [research and development] on defenses, missile defenses, and deploying such defenses as the technologies mature, and on cyber and EW [electronic warfare] capabilities and on advanced conventional technologies.    Thank you very much.    [The prepared statement of Dr. Blechman can be found in the Appendix on page 75.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Dr. Blechman.    Dr. Mount, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Mount</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Mount. Thank you, Chairman Rogers, Congressman Cooper, members of the subcommittee. Thank you for the opportunity to discuss this with you today.    The world that we are entering is indeed a period of strategic competition. However, this does not mean we are in a new Cold War. Today's challenge is one of maintaining stability in regional contexts and defending the core interests of U.S. allies against limited, but persistent, encroachment.    Both China and Russia are engaged in extensive programs to modernize their nuclear arsenals. But with a few important exceptions, both countries are replacing legacy systems that have reached the end of their service lives. Neither country plans to operate a submarine force capable of maintaining boats continually on station near our shores and neither plans to construct a low, observable bomber platform. For the foreseeable future, U.S. nuclear forces will remain markedly more capable.    Recent calls to build new nuclear weapons and to deploy them closer to potential zones of conflict represent a dramatic departure from longstanding, bipartisan consensus nuclear policy. Since the 1980s, Presidents of both parties have worked to reduce the salience of nuclear weapons in our military planning, to gradually reduce our nuclear stockpile and to refrain from procuring new capabilities.    New nuclear weapons are unlikely to be effective instruments for deterrence or defense in this new era of hybrid conflict. Both Russia and China are likely to continue to pursue their objectives with operations that remain well below the threshold of war. Nuclear weapons, no matter what kind and no matter where they are stationed, cannot deter this kind of threat. They cannot help to roll back Russian occupation of Crimea or put a halt to Chinese land reclamation in the South China Sea.    At the same time, it is far from certain that low-yield and special-effects nuclear weapons are necessary for deterrence or escalation control. The United States cannot be certain that these weapons will deter better than the strategic arsenal or that they will restrain an adversary from conducting further nuclear strikes.    The enormous strategic and diplomatic costs of employing a tactical weapon make it unlikely that they would be utilized, which in turn decreases their utility as instruments of deterrence. China and Russia are already threatened by American superiority. New nuclear programs would likely cause them to accelerate their modernization efforts, contributing to what former Secretary of Defense Bill Perry recently warned is a new round in the nuclear arms race.    For these reasons, imbalances should be addressed through verifiable arms control agreements. For this reason, the United States should press Russia to engage in negotiations, not only to limit existing nuclear systems, but also the procurement programs that each country finds most threatening.    Initiating new nuclear procurement programs in the United States would also have serious effects on the national defense budget. If history is any precedent, Congress is unlikely to obligate funds for a hundred new bombers and 12 new Ohio-replacement submarines on top of numerous other outlays.    Unexpected cuts to core systems of the triad will require changes in strategy and operations. At the same time, nuclear modernization plans also place significant pressure on other military priorities, especially in Navy shipbuilding and the F-35 program.    Congress and the White House should seek prudent cuts to the modernization plans in advance so that the services can plan for the future. Specifically, Congress should require the Department of Defense [DOD] to generate studies that explain the need for a new cruise missile, examine the effect of moving to a force of 8 to 10 ballistic missile submarines and to provide regular cost estimates of new spending on nuclear systems, especially the new Long-Range Strike Bomber.    Lastly, the costs of seeking new nuclear capabilities are not only monetary. Reneging on the U.S. commitment not to build new nuclear capabilities could stress a beleaguered nuclear nonproliferation treaty regime to the breaking point, and thereby deprive the United States of important tools to prevent the spread of nuclear weapons.    At the same time, new procurement efforts would encourage the other countries to seek these capabilities. It is far safer to maintain that nuclear weapons are not an effective means of controlling escalation.    In conclusion, current and projected strategic conditions do not warrant major changes to longstanding nuclear force structure. It is critical to national security and the Nation's standing in the world that the United States maintain its commitment not to seek new nuclear capabilities and to continue gradual negotiated reductions of its nuclear arsenal.    Thank you.    [The prepared statement of Dr. Mount can be found in the Appendix on page 91.]</t>
   </si>
   <si>
@@ -157,6 +187,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman, for having this hearing.    And thank you all for being here and for your hard work.    I would like to ask something to Dr. Clark Murdock, Dr. Keith Payne, and Mr. Elbridge Colby in particular.    There was some talk that there was consideration of further unilateral cuts beyond what New START [Strategic Arms Reduction Treaty] called for. And I am not sure that that has died down or not, I hope it has. But should that kind of talk be resurrected, would you or any of the three of you advocate for further unilateral cuts on the part of the U.S. of our nuclear stockpile?</t>
   </si>
   <si>
@@ -190,6 +226,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman.    Thank you for being here, gentlemen.    This one is for the group.    And as it was mentioned in the Wolfsthal and Lewis, the Trillion Dollar Triad report, Dr. Mount, you mentioned that in your testimony a few times, and the cost estimate of a trillion dollars to upgrade our nuclear triad over the next 30 years.    Based on this mind-boggling figure, how can we, regardless of the strategic argument, realistically talk about developing and deploying lower-yield weapons when clearly now and in the future some of these serious investments that we need to make, some serious investments in our conventional capabilities, with finite dollars available to us, it is imperative that they be invested wisely.    And I give you some credit because in your testimony you do talk about some of the financial implications as well. Can you expand on that?</t>
   </si>
   <si>
@@ -232,6 +274,12 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    And I am glad to hear, it is very interesting to hear that really a debate that is going on right in front of our eyes, the panel, of where we go with our nuclear deterrence. And I do appreciate the fact that it seems there is a consensus that we maintain our nuclear triad, and I certainly agree with that. We want to make our potential adversaries the most complex problem possible. That is how deterrence works.    Dr. Payne, I have a question for you. How do long-range bombers factor into your call for greater adaptability and flexibility in our future nuclear posture? And could you explain why we need the new Long-Range Strike Bomber that will eventually replace portions of our current bomber force?</t>
   </si>
   <si>
@@ -271,6 +319,9 @@
     <t>412382</t>
   </si>
   <si>
+    <t>Garamendi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Garamendi. Chairman Rogers, thank you so very, very much.    This is an extraordinarily important policy issue. It is a policy that we will be dealing with, I think, in the next--this year and on into probably the next 5 years. But we will set in place, one way or another, an extraordinarily important process.    We have heard from, what I would call, the advocates of a greater nuclear. I would like to have Dr. Blechman take about 3\\1/2\\ of my 5 minutes and come back with your arguments as to what you have heard here.    Dr. Blechman.    If you can pull that microphone down in front of you. There you go.</t>
   </si>
   <si>
@@ -292,6 +343,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. For 15 minutes, that would be perfect.</t>
   </si>
   <si>
@@ -338,6 +395,9 @@
   </si>
   <si>
     <t>412567</t>
+  </si>
+  <si>
+    <t>Bridenstine</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    Every day I am in Congress I am surprised, most recently by Mr. Garamendi, my good friend from California, who I have high regard for, who I think is a great thinker, although we might not always agree, if very often at all. I don't know.    But you know, his declaratory policy of if you use a nuclear weapon you are history, it is very Reaganesque and I am impressed by that. And I would--I say that very complimentary.    What I would like to discuss are some of the things that we have in common. The ranking member mentioned that the command and control element seemed to be an issue where there is a lot of commonality, which is very important for us because where there is commonality we can start looking at budgets, at policy, at programs that we can put together.    And when you look at the command and control, it seems like everybody is in agreement that we need resiliency, that we need survivability.    You know, we have, you know, a space-based architecture for command and control that would be survivable and resilient. There is an AOA [analysis of alternatives] that has been in the Pentagon now for a long time. We have been trying to get that from the Pentagon. It has been very difficult getting it.    But I wanted to draw on a statement from Mr. Colby. You recommend that the United States develop, quote--``more resilient space assets, more terrestrial and air-breathing platforms for C4ISR [command, control, communications, computers, intelligence, surveillance, and reconnaissance] and more modular and disaggregated architecture.''    I think I would agree with all of that assessment. Can you describe specific investments you would support? And do we need a layered architecture to back up the current system?</t>
@@ -770,7 +830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +838,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,2789 +860,3280 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>57</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>101</v>
+      </c>
       <c r="H71" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G73" t="s">
+        <v>101</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G75" t="s">
+        <v>109</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G77" t="s">
+        <v>109</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G78" t="s">
+        <v>109</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G80" t="s">
+        <v>109</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G82" t="s">
+        <v>109</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G84" t="s">
+        <v>109</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G86" t="s">
+        <v>109</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>108</v>
+      </c>
+      <c r="G88" t="s">
+        <v>109</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>110</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G90" t="s">
+        <v>127</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G92" t="s">
+        <v>127</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G94" t="s">
+        <v>127</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>84</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s">
+        <v>101</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G96" t="s">
+        <v>127</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>17</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>17</v>
+      </c>
       <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>17</v>
+      </c>
       <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>37</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>135</v>
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97499.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Rogers</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cooper</t>
   </si>
   <si>
@@ -187,6 +196,9 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Lamborn</t>
   </si>
   <si>
@@ -224,6 +236,9 @@
   </si>
   <si>
     <t>412615</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Aguilar</t>
@@ -830,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,3277 +878,3536 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G69" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G71" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H73" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H75" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H77" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G78" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G80" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G82" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I82" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G84" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>31</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G90" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>34</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G94" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H95" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>37</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>37</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>40</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G116" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="H116" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
